--- a/Data/EC/NIT-9015335537.xlsx
+++ b/Data/EC/NIT-9015335537.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED24A67-A55C-4EEF-82D6-18D177463C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70815BD6-BFF6-47C2-B4DB-FC01E9F41C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8069560-94C3-477E-B60B-F2845137D559}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D1FCABB-4C3A-4426-A8BD-CD0CC8686F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,22 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1049827115</t>
+  </si>
+  <si>
+    <t>JORGE LUIS AYOLA DIAZ</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>1047415271</t>
   </si>
   <si>
     <t>YIRA TATIANA DIAZ NOVOA</t>
   </si>
   <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>1049827115</t>
-  </si>
-  <si>
-    <t>JORGE LUIS AYOLA DIAZ</t>
-  </si>
-  <si>
-    <t>2212</t>
+    <t>73166479</t>
+  </si>
+  <si>
+    <t>MAXIMILIANO MARRUGO POLO</t>
+  </si>
+  <si>
+    <t>73560811</t>
+  </si>
+  <si>
+    <t>ROMAN CARRIAZO GOENAGA</t>
   </si>
   <si>
     <t>1051886209</t>
@@ -89,37 +104,22 @@
     <t>JORGE ENRIQUE DEULOFEUTT CASTILLO</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
     <t>73106277</t>
   </si>
   <si>
     <t>FIDEL CASTILLO GODOY</t>
   </si>
   <si>
+    <t>1049824118</t>
+  </si>
+  <si>
+    <t>ALFONSO MONTALBAN MERCADO</t>
+  </si>
+  <si>
     <t>1051891144</t>
   </si>
   <si>
     <t>LUIS FERNANDO BATISTA MORALES</t>
-  </si>
-  <si>
-    <t>73166479</t>
-  </si>
-  <si>
-    <t>MAXIMILIANO MARRUGO POLO</t>
-  </si>
-  <si>
-    <t>73560811</t>
-  </si>
-  <si>
-    <t>ROMAN CARRIAZO GOENAGA</t>
-  </si>
-  <si>
-    <t>1049824118</t>
-  </si>
-  <si>
-    <t>ALFONSO MONTALBAN MERCADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1055ED8A-8FC1-987B-7D84-A40A689D630E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A88AF1-5DDC-6927-4ACB-56D752262F51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F02100-0C87-4E13-BAF6-3A674243471D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4515B030-10F7-418E-B4F5-93C7B75E8FFC}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,19 +1076,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1122,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1319997</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
-        <v>37120</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1319997</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18">
-        <v>37120</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1319997</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>37120</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>37120</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
         <v>37120</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>37120</v>
@@ -1283,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>32000</v>
+        <v>37120</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1306,19 +1306,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F27" s="24">
-        <v>32000</v>
+        <v>37120</v>
       </c>
       <c r="G27" s="24">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>

--- a/Data/EC/NIT-9015335537.xlsx
+++ b/Data/EC/NIT-9015335537.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70815BD6-BFF6-47C2-B4DB-FC01E9F41C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F047EA-3BB3-41ED-8ADF-7159CFE3C0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D1FCABB-4C3A-4426-A8BD-CD0CC8686F3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA574864-6EF6-439A-9A91-BF87F1B53863}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,19 +71,19 @@
     <t>JORGE LUIS AYOLA DIAZ</t>
   </si>
   <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1047415271</t>
+  </si>
+  <si>
+    <t>YIRA TATIANA DIAZ NOVOA</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2305</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>1047415271</t>
-  </si>
-  <si>
-    <t>YIRA TATIANA DIAZ NOVOA</t>
   </si>
   <si>
     <t>73166479</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A88AF1-5DDC-6927-4ACB-56D752262F51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04902A00-C76E-412A-5FF8-723A43C1EDC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4515B030-10F7-418E-B4F5-93C7B75E8FFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424065EF-B4EB-46EC-9A2E-9BB343415A66}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,19 +1076,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1000003</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1122,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1319997</v>
+        <v>1000003</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="18">
-        <v>1319997</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="G21" s="18">
-        <v>1319997</v>
+        <v>1000003</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,7 +1197,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="18">
         <v>37120</v>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
         <v>37120</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
         <v>37120</v>
@@ -1266,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
         <v>37120</v>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>37120</v>
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F27" s="24">
         <v>37120</v>
